--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -11001,7 +11001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -17146,10 +17146,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17554,8 +17554,8 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
+      <c r="K7" s="10">
+        <v>-1</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -17616,8 +17616,8 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="10">
-        <v>-1</v>
+      <c r="K8" s="1">
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -17675,14 +17675,14 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -17771,75 +17771,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\HK181\NMTTNT(AI)\GitAss1\Assignment1AI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00E0721C-D532-4B38-81D3-E677715CF97D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -168,9 +169,6 @@
     <t>2 (3,8) luôn bật (3,10);(3,11)</t>
   </si>
   <si>
-    <t>Bắt đầu ((3,3) - Kết thúc (-1,-1)</t>
-  </si>
-  <si>
     <t>3 (10,3) toggle (9,10)</t>
   </si>
   <si>
@@ -210,9 +208,6 @@
     <t>Bắt đầu : (2,3) - kết thúc (8,3)</t>
   </si>
   <si>
-    <t>3 (2,13) toggle (7,9); (7,10)</t>
-  </si>
-  <si>
     <t>3 (7,13) luôn tắt (11,4); (11,5)</t>
   </si>
   <si>
@@ -239,11 +234,17 @@
   <si>
     <t>3- (8,14) toggle (8,12);(8,13)</t>
   </si>
+  <si>
+    <t>3 (2,12) toggle (7,9); (7,10)</t>
+  </si>
+  <si>
+    <t>Bắt đầu ((3,3) - Kết thúc (4,15)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,7 +759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1343,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2255,7 +2256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3072,7 +3073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4841,7 +4842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5753,7 +5754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6716,11 +6717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="B2:R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7440,11 +7441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="A1:T15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8378,32 +8379,32 @@
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -8412,10 +8413,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="T14" sqref="B2:T14"/>
     </sheetView>
   </sheetViews>
@@ -9288,37 +9289,37 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -9327,11 +9328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="A1:T15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10265,22 +10266,22 @@
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -10289,7 +10290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10998,10 +10999,10 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -11936,37 +11937,37 @@
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -11976,7 +11977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12675,7 +12676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13518,7 +13519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14485,7 +14486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15432,7 +15433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16260,7 +16261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17145,10 +17146,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\HK181\NMTTNT(AI)\GitAss1\Assignment1AI\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK2_HCMUT\NHAP MON TRI TUE NHAN TAO\ASSIGNMENT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00E0721C-D532-4B38-81D3-E677715CF97D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -33,6 +32,10 @@
     <sheet name="Level18" sheetId="20" r:id="rId18"/>
     <sheet name="Level19" sheetId="22" r:id="rId19"/>
     <sheet name="Level20" sheetId="23" r:id="rId20"/>
+    <sheet name="Level30" sheetId="27" r:id="rId21"/>
+    <sheet name="Level31" sheetId="26" r:id="rId22"/>
+    <sheet name="Level32" sheetId="25" r:id="rId23"/>
+    <sheet name="Level33" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t xml:space="preserve">Trạng Thái bắt đầu: ô màu đỏ </t>
   </si>
@@ -169,6 +172,9 @@
     <t>2 (3,8) luôn bật (3,10);(3,11)</t>
   </si>
   <si>
+    <t>Bắt đầu ((3,3) - Kết thúc (-1,-1)</t>
+  </si>
+  <si>
     <t>3 (10,3) toggle (9,10)</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
     <t>Bắt đầu : (2,3) - kết thúc (8,3)</t>
   </si>
   <si>
+    <t>3 (2,13) toggle (7,9); (7,10)</t>
+  </si>
+  <si>
     <t>3 (7,13) luôn tắt (11,4); (11,5)</t>
   </si>
   <si>
@@ -235,16 +244,49 @@
     <t>3- (8,14) toggle (8,12);(8,13)</t>
   </si>
   <si>
-    <t>3 (2,12) toggle (7,9); (7,10)</t>
+    <t>Tất cả các ô 3 đều tắt (10,5);(10,6): Các ô 3 : (4,7);(10,8);(2,9);(6,9);(4,10);(5,11);(5,12);(6,12);(7,13);(8,13);(4,15);(10,15)</t>
   </si>
   <si>
-    <t>Bắt đầu ((3,3) - Kết thúc (4,15)</t>
+    <t>2 - (9,16) toggle (3,13)</t>
+  </si>
+  <si>
+    <t>2 - (4,13) toggle (10,4);(10,5)</t>
+  </si>
+  <si>
+    <t>2 - (2,15) toggle (9,4);(9,5) và (3,6);(3,7)</t>
+  </si>
+  <si>
+    <t>2 - (9,7) toggle (4,6);(4,7)</t>
+  </si>
+  <si>
+    <t>3 - (9,9) luôn tắt 8 ô: (9,6);(9,7);(9,11);(9,12);(4,6);(4,7);(4,11);(4,12)</t>
+  </si>
+  <si>
+    <t>3 - (6,8) luôn tắt 8 ô: (9,6);(9,7);(9,11);(9,12);(4,6);(4,7);(4,11);(4,12)</t>
+  </si>
+  <si>
+    <t>2 - (2,10) toggle (4,11);(4,12)</t>
+  </si>
+  <si>
+    <t>2 - (10,8) toggle (9,6);(9,7)</t>
+  </si>
+  <si>
+    <t>2 - (10,4) luôn bật (4,6);(4,7) (2,16),(3,16),(4,16)</t>
+  </si>
+  <si>
+    <t>2 - (9,14) toggle (8,16)</t>
+  </si>
+  <si>
+    <t>2 (4,16) luôn bật (8,11) và (8,14) và luôn tắt (5,12);(5,13)</t>
+  </si>
+  <si>
+    <t>2 (7,3) luôn bật (5,12);(5,13)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +462,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -433,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -475,6 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,7 +808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1344,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2256,7 +2305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3073,7 +3122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3940,7 +3989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4842,7 +4891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5754,7 +5803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6717,11 +6766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="B2:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7441,11 +7490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T15" sqref="A1:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8379,32 +8428,32 @@
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -8413,11 +8462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T14" sqref="B2:T14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9289,37 +9338,37 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9328,11 +9377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T15" sqref="A1:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10266,22 +10315,22 @@
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -10290,7 +10339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10999,11 +11048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11937,37 +11986,37 @@
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -11976,8 +12025,3800 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21">
+        <v>5</v>
+      </c>
+      <c r="M4" s="21">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="35">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="39">
+        <v>1</v>
+      </c>
+      <c r="O7" s="39">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <v>5</v>
+      </c>
+      <c r="L8" s="21">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="35">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>5</v>
+      </c>
+      <c r="L9" s="21">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>5</v>
+      </c>
+      <c r="E10" s="21">
+        <v>5</v>
+      </c>
+      <c r="F10" s="21">
+        <v>5</v>
+      </c>
+      <c r="G10" s="21">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5</v>
+      </c>
+      <c r="E11" s="21">
+        <v>5</v>
+      </c>
+      <c r="F11" s="21">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="21">
+        <v>5</v>
+      </c>
+      <c r="K11" s="21">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="21">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="23">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>5</v>
+      </c>
+      <c r="F12" s="21">
+        <v>5</v>
+      </c>
+      <c r="G12" s="21">
+        <v>5</v>
+      </c>
+      <c r="H12" s="21">
+        <v>5</v>
+      </c>
+      <c r="I12" s="21">
+        <v>5</v>
+      </c>
+      <c r="J12" s="21">
+        <v>5</v>
+      </c>
+      <c r="K12" s="21">
+        <v>5</v>
+      </c>
+      <c r="L12" s="21">
+        <v>5</v>
+      </c>
+      <c r="M12" s="21">
+        <v>5</v>
+      </c>
+      <c r="N12" s="21">
+        <v>5</v>
+      </c>
+      <c r="O12" s="21">
+        <v>5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
+        <v>5</v>
+      </c>
+      <c r="H13" s="21">
+        <v>5</v>
+      </c>
+      <c r="I13" s="21">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
+        <v>5</v>
+      </c>
+      <c r="M13" s="21">
+        <v>5</v>
+      </c>
+      <c r="N13" s="21">
+        <v>5</v>
+      </c>
+      <c r="O13" s="21">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="23">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17">
+        <v>5</v>
+      </c>
+      <c r="G8" s="17">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="41">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>5</v>
+      </c>
+      <c r="P9" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="41">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="B2:S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13">
+        <v>3</v>
+      </c>
+      <c r="N7" s="13">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="13">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="13">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12676,7 +16517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13519,7 +17360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14486,7 +18327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15433,7 +19274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16261,7 +20102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17146,7 +20987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -32,10 +32,14 @@
     <sheet name="Level18" sheetId="20" r:id="rId18"/>
     <sheet name="Level19" sheetId="22" r:id="rId19"/>
     <sheet name="Level20" sheetId="23" r:id="rId20"/>
-    <sheet name="Level30" sheetId="27" r:id="rId21"/>
-    <sheet name="Level31" sheetId="26" r:id="rId22"/>
-    <sheet name="Level32" sheetId="25" r:id="rId23"/>
-    <sheet name="Level33" sheetId="24" r:id="rId24"/>
+    <sheet name="Level26" sheetId="31" r:id="rId21"/>
+    <sheet name="Level27" sheetId="30" r:id="rId22"/>
+    <sheet name="Level28" sheetId="29" r:id="rId23"/>
+    <sheet name="Level29" sheetId="28" r:id="rId24"/>
+    <sheet name="Level30" sheetId="27" r:id="rId25"/>
+    <sheet name="Level31" sheetId="26" r:id="rId26"/>
+    <sheet name="Level32" sheetId="25" r:id="rId27"/>
+    <sheet name="Level33" sheetId="24" r:id="rId28"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t xml:space="preserve">Trạng Thái bắt đầu: ô màu đỏ </t>
   </si>
@@ -282,6 +286,51 @@
   <si>
     <t>2 (7,3) luôn bật (5,12);(5,13)</t>
   </si>
+  <si>
+    <t>3 - (8,14) luôn bật (5,3);(5,4)</t>
+  </si>
+  <si>
+    <t>3 - (11,14) luôn bật (5,14);(5,15), luôn tắt những cái là : (2,5);(2,6);(2,12);(2,13), (8,12);(8,13)</t>
+  </si>
+  <si>
+    <t>2 (5,2) luôn bật (10,5);(10,6) và luôn tắt (11,12);(11,13)</t>
+  </si>
+  <si>
+    <t>2 (2,4) luôn bật (2,12);(2,13) và luôn tắt (8,12);(8,13)</t>
+  </si>
+  <si>
+    <t>2 - (2,14) luôn bật (7,7);(7,8)</t>
+  </si>
+  <si>
+    <t>2 - (5,16) luôn bật (11,5)</t>
+  </si>
+  <si>
+    <t>Bắt đầu : (5,9) kết thúc  (10,3)</t>
+  </si>
+  <si>
+    <t>2 - (9,13) luôn tắt (2,5);(2,6);(11,10);(11,11)</t>
+  </si>
+  <si>
+    <t>4 (7,13) chia đội tại (8,16) và (11,14)</t>
+  </si>
+  <si>
+    <t>2 - (5,15) luôn tắt (11,8);(11,11)</t>
+  </si>
+  <si>
+    <t>3 - (7,14) luôn tắt (11,8)</t>
+  </si>
+  <si>
+    <t>3 ( 7,15) luôn tắt (11,11)</t>
+  </si>
+  <si>
+    <t>3 - (3,9) luôn tắt (5,4);(5,5)</t>
+  </si>
+  <si>
+    <t>4 - (2,15) phân đôi lại (7,12) và (5,14)</t>
+  </si>
+  <si>
+    <t>2 - (9,3) luôn bật (9,11)</t>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -524,6 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12027,9 +12077,3749 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="35">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="39">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="39">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="41">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="41">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="35">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="35">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -12982,7 +16772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
@@ -13949,7 +17739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
@@ -14803,7 +18593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>

--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK2_HCMUT\NHAP MON TRI TUE NHAN TAO\ASSIGNMENT\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\HK181\NMTTNT(AI)\GitAss1\Assignment1AI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{961453B3-E9EF-407E-A729-669DA6E85F82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="952" firstSheet="12" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -335,7 +336,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1443,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3172,7 +3173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4039,7 +4040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4941,7 +4942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5853,7 +5854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6816,7 +6817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7540,7 +7541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8512,7 +8513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9427,7 +9428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10389,7 +10390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11098,7 +11099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12076,10 +12077,10 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -12929,7 +12930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13886,7 +13887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14839,7 +14840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15816,7 +15817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16773,7 +16774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17740,7 +17741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18594,11 +18595,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19302,10 +19303,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -19608,7 +19609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20307,7 +20308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21150,7 +21151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22117,7 +22118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23064,7 +23065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23892,7 +23893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24777,7 +24778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\HK181\NMTTNT(AI)\GitAss1\Assignment1AI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{961453B3-E9EF-407E-A729-669DA6E85F82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01917E6B-D8D2-42E5-92B7-C479B683BEBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="952" firstSheet="12" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,9 +249,6 @@
     <t>3- (8,14) toggle (8,12);(8,13)</t>
   </si>
   <si>
-    <t>Tất cả các ô 3 đều tắt (10,5);(10,6): Các ô 3 : (4,7);(10,8);(2,9);(6,9);(4,10);(5,11);(5,12);(6,12);(7,13);(8,13);(4,15);(10,15)</t>
-  </si>
-  <si>
     <t>2 - (9,16) toggle (3,13)</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>2 - (9,3) luôn bật (9,11)</t>
+  </si>
+  <si>
+    <t>Tất cả các ô 3 đều tắt (10,5);(10,6): Các ô 3 : (4,7);(10,8);(2,9);(6,9);(4,10);(5,11);(5,12);(6,12);(7,13);(8,13);(5,15);(10,15)</t>
   </si>
 </sst>
 </file>
@@ -6821,7 +6821,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="B2:R12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12911,17 +12911,17 @@
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -13868,17 +13868,17 @@
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -14825,12 +14825,12 @@
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -15778,37 +15778,37 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -16755,17 +16755,17 @@
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -17712,27 +17712,27 @@
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -18575,17 +18575,17 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -18599,7 +18599,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19595,12 +19595,12 @@
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\HK181\NMTTNT(AI)\GitAss1\Assignment1AI\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK2_HCMUT\NHAP MON TRI TUE NHAN TAO\ASSIGNMENT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01917E6B-D8D2-42E5-92B7-C479B683BEBA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="952" firstSheet="12" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="967" firstSheet="12" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -267,9 +266,6 @@
     <t>3 - (6,8) luôn tắt 8 ô: (9,6);(9,7);(9,11);(9,12);(4,6);(4,7);(4,11);(4,12)</t>
   </si>
   <si>
-    <t>2 - (2,10) toggle (4,11);(4,12)</t>
-  </si>
-  <si>
     <t>2 - (10,8) toggle (9,6);(9,7)</t>
   </si>
   <si>
@@ -327,16 +323,19 @@
     <t>4 - (2,15) phân đôi lại (7,12) và (5,14)</t>
   </si>
   <si>
-    <t>2 - (9,3) luôn bật (9,11)</t>
+    <t>2 - (9,3) luôn bật (9,11),(6,5)</t>
   </si>
   <si>
-    <t>Tất cả các ô 3 đều tắt (10,5);(10,6): Các ô 3 : (4,7);(10,8);(2,9);(6,9);(4,10);(5,11);(5,12);(6,12);(7,13);(8,13);(5,15);(10,15)</t>
+    <t>2 - (3,10) toggle (4,11);(4,12)</t>
+  </si>
+  <si>
+    <t>Tất cả các ô 3 đều tắt (9,5);(9,6): Các ô 3 : (4,7);(9,8);(2,9);(6,9);(4,10);(5,11);(5,12);(6,12);(7,13);(8,13);(5,15);(9,15)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -859,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1444,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2356,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3173,7 +3172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4040,7 +4039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4942,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5854,7 +5853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6817,11 +6816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="R12" sqref="B2:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7541,7 +7540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8513,7 +8512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9428,7 +9427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10390,7 +10389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11099,7 +11098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12077,11 +12076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12515,7 +12514,7 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="23">
         <v>0</v>
       </c>
       <c r="H8">
@@ -12911,17 +12910,17 @@
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -12930,7 +12929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13868,17 +13867,17 @@
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -13887,7 +13886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14825,12 +14824,12 @@
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -14840,11 +14839,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:T15"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15778,37 +15777,37 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -15817,11 +15816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16755,17 +16754,17 @@
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -16774,11 +16773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17722,17 +17721,17 @@
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -17741,7 +17740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18595,11 +18594,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19169,14 +19168,14 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19211,8 +19210,8 @@
       <c r="Q10" s="1">
         <v>1</v>
       </c>
-      <c r="R10">
-        <v>0</v>
+      <c r="R10" s="1">
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -19234,23 +19233,23 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="E11" s="10">
+        <v>-1</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
+      <c r="J11" s="13">
+        <v>3</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -19270,11 +19269,11 @@
       <c r="P11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1</v>
+      <c r="Q11" s="13">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -19296,23 +19295,23 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="10">
-        <v>-1</v>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="13">
-        <v>3</v>
+      <c r="J12" s="1">
+        <v>1</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -19332,11 +19331,11 @@
       <c r="P12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12" s="13">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2">
-        <v>2</v>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -19370,14 +19369,14 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -19388,8 +19387,8 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" s="1">
-        <v>1</v>
+      <c r="O13">
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
@@ -19417,14 +19416,14 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -19453,14 +19452,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>1</v>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -19528,68 +19527,6 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
         <v>0</v>
       </c>
     </row>
@@ -19609,7 +19546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20308,7 +20245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21151,7 +21088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22118,7 +22055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23065,7 +23002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23893,7 +23830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24778,7 +24715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK2_HCMUT\NHAP MON TRI TUE NHAN TAO\ASSIGNMENT\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\HK181\NMTTNT(AI)\GitAss1\Assignment1AI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAC9F6F7-5D4B-4D28-A0BD-231B61D67D8B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="967" firstSheet="12" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="967" firstSheet="12" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -269,9 +270,6 @@
     <t>2 - (10,8) toggle (9,6);(9,7)</t>
   </si>
   <si>
-    <t>2 - (10,4) luôn bật (4,6);(4,7) (2,16),(3,16),(4,16)</t>
-  </si>
-  <si>
     <t>2 - (9,14) toggle (8,16)</t>
   </si>
   <si>
@@ -331,11 +329,14 @@
   <si>
     <t>Tất cả các ô 3 đều tắt (9,5);(9,6): Các ô 3 : (4,7);(9,8);(2,9);(6,9);(4,10);(5,11);(5,12);(6,12);(7,13);(8,13);(5,15);(9,15)</t>
   </si>
+  <si>
+    <t>2 - (10,4) luôn tat (4,6);(4,7) luon bat (2,16),(3,16),(4,16)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1443,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3172,7 +3173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4039,7 +4040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4941,7 +4942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5853,7 +5854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6816,7 +6817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7540,7 +7541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8512,7 +8513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9427,7 +9428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10389,7 +10390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11098,7 +11099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12076,7 +12077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12910,17 +12911,17 @@
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -12929,7 +12930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13867,17 +13868,17 @@
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -13886,7 +13887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14824,12 +14825,12 @@
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -14839,7 +14840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15777,37 +15778,37 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -15816,11 +15817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16754,17 +16755,17 @@
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -16773,11 +16774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17721,7 +17722,7 @@
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
@@ -17731,7 +17732,7 @@
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -17740,7 +17741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18594,10 +18595,10 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -19532,7 +19533,7 @@
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
@@ -19546,7 +19547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20245,7 +20246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21088,7 +21089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22055,7 +22056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23002,7 +23003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23830,7 +23831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24715,7 +24716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/Book1.xlsx
+++ b/Data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\HK181\NMTTNT(AI)\GitAss1\Assignment1AI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAC9F6F7-5D4B-4D28-A0BD-231B61D67D8B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C1E61680-2191-45F8-A336-ADA19CC88DFC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="967" firstSheet="12" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="967" firstSheet="12" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -291,9 +291,6 @@
     <t>2 (2,4) luôn bật (2,12);(2,13) và luôn tắt (8,12);(8,13)</t>
   </si>
   <si>
-    <t>2 - (2,14) luôn bật (7,7);(7,8)</t>
-  </si>
-  <si>
     <t>2 - (5,16) luôn bật (11,5)</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>2 - (10,4) luôn tat (4,6);(4,7) luon bat (2,16),(3,16),(4,16)</t>
+  </si>
+  <si>
+    <t>2 - (2,14) luôn bật (7,7);(8,7)</t>
   </si>
 </sst>
 </file>
@@ -12911,17 +12911,17 @@
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -13868,17 +13868,17 @@
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -14825,12 +14825,12 @@
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -14843,8 +14843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15778,7 +15778,7 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
@@ -15803,12 +15803,12 @@
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -16777,7 +16777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -17722,7 +17722,7 @@
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
@@ -17732,7 +17732,7 @@
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -19533,7 +19533,7 @@
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
